--- a/Depth Damaged States Second Crack Pipe 4/PCs at A.xlsx
+++ b/Depth Damaged States Second Crack Pipe 4/PCs at A.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>-0.1015270358966007</v>
+        <v>-0.1015270387031144</v>
       </c>
       <c r="C2">
-        <v>-0.07739945830192625</v>
+        <v>-0.07739948648575427</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.2687199360046639</v>
+        <v>-0.2687199367893184</v>
       </c>
       <c r="C3">
-        <v>-0.006457572305835478</v>
+        <v>-0.006457503256908272</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>-0.09019201077445003</v>
+        <v>-0.09019201047523898</v>
       </c>
       <c r="C4">
-        <v>-0.03587285357441269</v>
+        <v>-0.03587290244736851</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.003805754090159959</v>
+        <v>-0.003805751925262781</v>
       </c>
       <c r="C5">
-        <v>0.08621150460738347</v>
+        <v>0.08621144353323856</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.1640689258578224</v>
+        <v>0.1640689286207657</v>
       </c>
       <c r="C6">
-        <v>0.6504790475842378</v>
+        <v>0.6504790105593782</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.416924445261882</v>
+        <v>0.4169244445739615</v>
       </c>
       <c r="C7">
-        <v>0.1840601851147621</v>
+        <v>0.1840601993219948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>-0.2121812791300458</v>
+        <v>-0.2121812806517848</v>
       </c>
       <c r="C8">
-        <v>0.02130865887465988</v>
+        <v>0.02130869981879541</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.2913918468404934</v>
+        <v>0.2913918480607914</v>
       </c>
       <c r="C9">
-        <v>-0.4225279806355859</v>
+        <v>-0.4225279831703068</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>-0.2751194370494647</v>
+        <v>-0.2751194339306948</v>
       </c>
       <c r="C10">
-        <v>-0.4364124502691885</v>
+        <v>-0.4364124719444865</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.1864793342307026</v>
+        <v>-0.186479335386877</v>
       </c>
       <c r="C11">
-        <v>0.1271530823282827</v>
+        <v>0.127153099986732</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.1770859489905786</v>
+        <v>-0.1770859481664095</v>
       </c>
       <c r="C12">
-        <v>0.1632352254717147</v>
+        <v>0.163235232178719</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>0.08942328537576764</v>
+        <v>0.08942328712969279</v>
       </c>
       <c r="C13">
-        <v>-0.06144217982350172</v>
+        <v>-0.06144222324959965</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.102525706171622</v>
+        <v>0.1025257059489221</v>
       </c>
       <c r="C14">
-        <v>0.1386232531307971</v>
+        <v>0.1386233126519767</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.3706576665515844</v>
+        <v>-0.370657665701243</v>
       </c>
       <c r="C15">
-        <v>0.1606306914625919</v>
+        <v>0.1606306347707781</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>-0.0194694441057048</v>
+        <v>-0.01946944529274175</v>
       </c>
       <c r="C16">
-        <v>0.2095003834492611</v>
+        <v>0.2095004104854966</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>0.5296783701534841</v>
+        <v>0.5296783694755453</v>
       </c>
       <c r="C17">
-        <v>-0.1526747936141876</v>
+        <v>-0.1526748003318228</v>
       </c>
     </row>
   </sheetData>

--- a/Depth Damaged States Second Crack Pipe 4/PCs at A.xlsx
+++ b/Depth Damaged States Second Crack Pipe 4/PCs at A.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>-0.1015270387031144</v>
+        <v>-0.1015270361306003</v>
       </c>
       <c r="C2">
-        <v>-0.07739948648575427</v>
+        <v>-0.07739947903905009</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.2687199367893184</v>
+        <v>-0.2687199367149048</v>
       </c>
       <c r="C3">
-        <v>-0.006457503256908272</v>
+        <v>-0.006457508680740541</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>-0.09019201047523898</v>
+        <v>-0.09019201333454478</v>
       </c>
       <c r="C4">
-        <v>-0.03587290244736851</v>
+        <v>-0.03587291232010001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.003805751925262781</v>
+        <v>-0.003805753379994392</v>
       </c>
       <c r="C5">
-        <v>0.08621144353323856</v>
+        <v>0.08621155139230897</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.1640689286207657</v>
+        <v>0.1640689263970433</v>
       </c>
       <c r="C6">
-        <v>0.6504790105593782</v>
+        <v>0.650479097835976</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.4169244445739615</v>
+        <v>0.4169244435165068</v>
       </c>
       <c r="C7">
-        <v>0.1840601993219948</v>
+        <v>0.1840601448020823</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>-0.2121812806517848</v>
+        <v>-0.2121812799863105</v>
       </c>
       <c r="C8">
-        <v>0.02130869981879541</v>
+        <v>0.02130867269946267</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.2913918480607914</v>
+        <v>0.2913918479334508</v>
       </c>
       <c r="C9">
-        <v>-0.4225279831703068</v>
+        <v>-0.4225279173339059</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>-0.2751194339306948</v>
+        <v>-0.2751194379008232</v>
       </c>
       <c r="C10">
-        <v>-0.4364124719444865</v>
+        <v>-0.4364124346554035</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.186479335386877</v>
+        <v>-0.1864793328661102</v>
       </c>
       <c r="C11">
-        <v>0.127153099986732</v>
+        <v>0.1271530912884204</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.1770859481664095</v>
+        <v>-0.1770859513302754</v>
       </c>
       <c r="C12">
-        <v>0.163235232178719</v>
+        <v>0.1632351968983671</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>0.08942328712969279</v>
+        <v>0.08942328507849927</v>
       </c>
       <c r="C13">
-        <v>-0.06144222324959965</v>
+        <v>-0.06144218404818691</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.1025257059489221</v>
+        <v>0.1025257054314926</v>
       </c>
       <c r="C14">
-        <v>0.1386233126519767</v>
+        <v>0.1386233053701928</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.370657665701243</v>
+        <v>-0.3706576651934783</v>
       </c>
       <c r="C15">
-        <v>0.1606306347707781</v>
+        <v>0.1606306806837003</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>-0.01946944529274175</v>
+        <v>-0.0194694443444809</v>
       </c>
       <c r="C16">
-        <v>0.2095004104854966</v>
+        <v>0.2095003684198133</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>0.5296783694755453</v>
+        <v>0.5296783699710567</v>
       </c>
       <c r="C17">
-        <v>-0.1526748003318228</v>
+        <v>-0.1526748038796708</v>
       </c>
     </row>
   </sheetData>

--- a/Depth Damaged States Second Crack Pipe 4/PCs at A.xlsx
+++ b/Depth Damaged States Second Crack Pipe 4/PCs at A.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>-0.1015270361306003</v>
+        <v>-0.1015270355258112</v>
       </c>
       <c r="C2">
-        <v>-0.07739947903905009</v>
+        <v>-0.07739945372952176</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.2687199367149048</v>
+        <v>-0.2687199368858343</v>
       </c>
       <c r="C3">
-        <v>-0.006457508680740541</v>
+        <v>-0.006457510096727321</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>-0.09019201333454478</v>
+        <v>-0.09019201417070066</v>
       </c>
       <c r="C4">
-        <v>-0.03587291232010001</v>
+        <v>-0.03587266485706624</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.003805753379994392</v>
+        <v>-0.003805752119790937</v>
       </c>
       <c r="C5">
-        <v>0.08621155139230897</v>
+        <v>0.08621131279498394</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.1640689263970433</v>
+        <v>0.1640689273409091</v>
       </c>
       <c r="C6">
-        <v>0.650479097835976</v>
+        <v>0.6504789960483139</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.4169244435165068</v>
+        <v>0.4169244444993534</v>
       </c>
       <c r="C7">
-        <v>0.1840601448020823</v>
+        <v>0.1840602006768164</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>-0.2121812799863105</v>
+        <v>-0.2121812803202658</v>
       </c>
       <c r="C8">
-        <v>0.02130867269946267</v>
+        <v>0.02130872370252205</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.2913918479334508</v>
+        <v>0.2913918490972521</v>
       </c>
       <c r="C9">
-        <v>-0.4225279173339059</v>
+        <v>-0.4225281013106755</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>-0.2751194379008232</v>
+        <v>-0.2751194356536076</v>
       </c>
       <c r="C10">
-        <v>-0.4364124346554035</v>
+        <v>-0.4364124991720461</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.1864793328661102</v>
+        <v>-0.1864793357379306</v>
       </c>
       <c r="C11">
-        <v>0.1271530912884204</v>
+        <v>0.1271531667757369</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.1770859513302754</v>
+        <v>-0.1770859472850482</v>
       </c>
       <c r="C12">
-        <v>0.1632351968983671</v>
+        <v>0.1632351626471411</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>0.08942328507849927</v>
+        <v>0.0894232850131521</v>
       </c>
       <c r="C13">
-        <v>-0.06144218404818691</v>
+        <v>-0.0614422160944515</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.1025257054314926</v>
+        <v>0.1025257066815535</v>
       </c>
       <c r="C14">
-        <v>0.1386233053701928</v>
+        <v>0.1386233154617841</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.3706576651934783</v>
+        <v>-0.3706576665624671</v>
       </c>
       <c r="C15">
-        <v>0.1606306806837003</v>
+        <v>0.1606306500164557</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>-0.0194694443444809</v>
+        <v>-0.01946944389694325</v>
       </c>
       <c r="C16">
-        <v>0.2095003684198133</v>
+        <v>0.209500347886362</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>0.5296783699710567</v>
+        <v>0.529678368363055</v>
       </c>
       <c r="C17">
-        <v>-0.1526748038796708</v>
+        <v>-0.1526746872770145</v>
       </c>
     </row>
   </sheetData>
